--- a/Task_5_1/graph.xlsx
+++ b/Task_5_1/graph.xlsx
@@ -173,7 +173,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$1:$C$24</c:f>
+              <c:f>Лист1!$D$1:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1084,16 +1084,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1378,15 +1378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1396,268 +1396,436 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f>A1*(1-1/D1)/(A1+1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1.825</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1.526</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.8009999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f t="shared" ref="E2:E24" si="0">A2*(1-1/D2)/(A2+1)</f>
+        <v>0.29650194336479729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>2.6749999999999998</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.1480000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.262</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.52007970570202333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>3.552</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2.86</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.6310000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.6272511336644353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>4.6399999999999997</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3.6509999999999998</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.69513543394140409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>6.0659999999999998</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4.883</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7.4969999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.74281141027839703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>7.0430000000000001</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5.742</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8.9350000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.77707050923335197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>7.9409999999999998</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>6.8419999999999996</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>10.909000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.80740672838940319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>8.7240000000000002</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>7.7409999999999997</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>11.747999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.82339121552604699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>9.1590000000000007</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>8.6539999999999999</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>12.872</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.83846545002542527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>10.664</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>9.5839999999999996</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>14.44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.85318559556786699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>11.381</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>10.68</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>15.654</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.86410944364183151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>11.21</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>10.435</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>16.597000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.87262327959441899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>10.654999999999999</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>10.362</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>16.463999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.87664399092970524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>9.8970000000000002</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>9.6140000000000008</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>16.692</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.8813353702372394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
         <v>11.044</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>11.186</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>16.765999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.88504045301766177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>11.228</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>10.765000000000001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>16.806000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.8882475835349809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>10.56</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>11.593999999999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>16.984000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.89158836799960339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
         <v>11.272</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>11.87</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>17.149999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.89460641399416918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>11.419</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>12.003</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>17.151</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.89685177318551468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>11.413</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>12.054</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>17.434999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.89979664728732689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>11.278</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>11.93</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>17.411999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.90158711133750835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>11.026999999999999</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>11.948</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>17.324000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.90301508504579386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>11.51</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>12.013999999999999</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>16.306999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.90112957625559575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>4.7519999999999998</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>3.91</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>7.2430000000000003</v>
       </c>
     </row>

--- a/Task_5_1/graph.xlsx
+++ b/Task_5_1/graph.xlsx
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,9 +1399,9 @@
       <c r="D1">
         <v>1</v>
       </c>
-      <c r="E1">
-        <f>A1*(1-1/D1)/(A1+1)</f>
-        <v>0</v>
+      <c r="E1" t="e">
+        <f>1-(1/D1-1/A1)/(1-1/A1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1418,8 +1418,8 @@
         <v>1.8009999999999999</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">A2*(1-1/D2)/(A2+1)</f>
-        <v>0.29650194336479729</v>
+        <f>1-(1/C2-1/A2)/(1-1/A2)</f>
+        <v>0.68938401048492803</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1436,8 +1436,8 @@
         <v>3.262</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.52007970570202333</v>
+        <f t="shared" ref="E3:E24" si="0">1-(1/C3-1/A3)/(1-1/A3)</f>
+        <v>0.8016759776536313</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.6272511336644353</v>
+        <v>0.86713286713286708</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.69513543394140409</v>
+        <v>0.9076280471103807</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.74281141027839703</v>
+        <v>0.954249436821626</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.77707050923335197</v>
+        <v>0.96348542900267042</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.80740672838940319</v>
+        <v>0.97582160604668644</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.82339121552604699</v>
+        <v>0.97966993928433022</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.83846545002542527</v>
+        <v>0.98271833192101277</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.85318559556786699</v>
+        <v>0.9852253756260434</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.86410944364183151</v>
+        <v>0.9887640449438202</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.87262327959441899</v>
+        <v>0.97951605174892187</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.87664399092970524</v>
+        <v>0.97299303668730419</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.8813353702372394</v>
+        <v>0.95998395197479869</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.88504045301766177</v>
+        <v>0.97130937481375523</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.8882475835349809</v>
+        <v>0.9638005109150023</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.89158836799960339</v>
+        <v>0.96749840181026692</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.89460641399416918</v>
+        <v>0.9666292240007488</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.89685177318551468</v>
+        <v>0.96493420504522986</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.89979664728732689</v>
+        <v>0.96289198606271775</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.90158711133750835</v>
+        <v>0.95980521294854904</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.90301508504579386</v>
+        <v>0.95795416501810882</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.90112957625559575</v>
+        <v>0.95662307018623194</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">

--- a/Task_5_1/graph.xlsx
+++ b/Task_5_1/graph.xlsx
@@ -103,7 +103,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2048 numbers</a:t>
+              <a:t>1024 numbers</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -173,7 +173,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$1:$D$24</c:f>
+              <c:f>Лист1!$C$1:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -181,73 +181,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8009999999999999</c:v>
+                  <c:v>1.526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.262</c:v>
+                  <c:v>2.1480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6310000000000002</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.03</c:v>
+                  <c:v>3.6509999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4969999999999999</c:v>
+                  <c:v>4.883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9350000000000005</c:v>
+                  <c:v>5.742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.909000000000001</c:v>
+                  <c:v>6.8419999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.747999999999999</c:v>
+                  <c:v>7.7409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.872</c:v>
+                  <c:v>8.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.44</c:v>
+                  <c:v>9.5839999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.654</c:v>
+                  <c:v>10.68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.597000000000001</c:v>
+                  <c:v>10.435</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.463999999999999</c:v>
+                  <c:v>10.362</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.692</c:v>
+                  <c:v>9.6140000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.765999999999998</c:v>
+                  <c:v>11.186</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.806000000000001</c:v>
+                  <c:v>10.765000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.984000000000002</c:v>
+                  <c:v>11.593999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.149999999999999</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.151</c:v>
+                  <c:v>12.003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.434999999999999</c:v>
+                  <c:v>12.054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.411999999999999</c:v>
+                  <c:v>11.93</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.324000000000002</c:v>
+                  <c:v>11.948</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.306999999999999</c:v>
+                  <c:v>12.013999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,10 +1399,6 @@
       <c r="D1">
         <v>1</v>
       </c>
-      <c r="E1" t="e">
-        <f>1-(1/D1-1/A1)/(1-1/A1)</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
